--- a/biology/Zoologie/Chrysochroa/Chrysochroa.xlsx
+++ b/biology/Zoologie/Chrysochroa/Chrysochroa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysochroa est un genre de coléoptères de la famille des Buprestidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chrysochroa est attribué, en 1833, au militaire et entomologiste français Pierre François Marie Auguste Dejean[1] (1780-1845).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chrysochroa est attribué, en 1833, au militaire et entomologiste français Pierre François Marie Auguste Dejean (1780-1845).
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Caractères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Palpes maxillaires de trois articles, le premier au moins de la longueur du second ; celui-ci un peu triangulaire ; le troisième plus ou moins conique. Les labiaux de deux articles assez courts, le deuxième le plus long, quelquefois légèrement arrondi à l'extrémité.
 Labre velu, fortement échancré.
 Languette assez grande, trilobée en avant.
 Mandibules larges, courtes, épaisses, terminées par une dent, ordinairement obtuse, quelquefois un peu aiguë.
 Antennes de onze articles, le premier assez fort, le deuxième très court, le troisième assez long ; tous les autres plus ou moins élargis, transversaux.
-Tarses allongés, spongieux en dessous, sensiblement élargis, à premier article un peu plus long que les autres ; le dernier deux fois au moins plus long que le précédent ; crochets forts[2].</t>
+Tarses allongés, spongieux en dessous, sensiblement élargis, à premier article un peu plus long que les autres ; le dernier deux fois au moins plus long que le précédent ; crochets forts.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (1 janvier 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (1 janvier 2022) :
 Chrysochroa akiyamai Lander, 1989
 Chrysochroa alternans Waterhouse, 1888
 Chrysochroa andamanensis Saunders, 1867
